--- a/inst/extdata/China fossil fuel imports from Russia - backup.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia - backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76ECA9C-A246-4B65-8230-74393FC1A1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381126A9-8F76-4E4C-9228-EB15F03E9E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Volume of Imports_Coal_Ru" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -525,31 +525,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="77.85546875" customWidth="1"/>
-    <col min="7" max="26" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="77.875" customWidth="1"/>
+    <col min="7" max="26" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
       <c r="B1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="14.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -590,7 +590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="14.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -631,7 +631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -672,7 +672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="14.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -713,7 +713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="14.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -754,7 +754,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="14.25">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -795,7 +795,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="14.25">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -836,7 +836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="14.25">
       <c r="A9" s="5">
         <v>34819</v>
       </c>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="14.25">
       <c r="A10" s="5">
         <v>34880</v>
       </c>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="14.25">
       <c r="A11" s="5">
         <v>35033</v>
       </c>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="14.25">
       <c r="A12" s="5">
         <v>35064</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="14.25">
       <c r="A13" s="5">
         <v>35461</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="14.25">
       <c r="A14" s="5">
         <v>35489</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="14.25">
       <c r="A15" s="5">
         <v>35550</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="14.25">
       <c r="A16" s="5">
         <v>35642</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="14.25">
       <c r="A17" s="5">
         <v>35673</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="14.25">
       <c r="A18" s="5">
         <v>35703</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="14.25">
       <c r="A19" s="5">
         <v>35734</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="14.25">
       <c r="A20" s="5">
         <v>35764</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1">
       <c r="A21" s="5">
         <v>35795</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1">
       <c r="A22" s="5">
         <v>35854</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1">
       <c r="A23" s="5">
         <v>35885</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1">
       <c r="A24" s="5">
         <v>35915</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1">
       <c r="A25" s="5">
         <v>35976</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1">
       <c r="A26" s="5">
         <v>36068</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1">
       <c r="A27" s="5">
         <v>36099</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1">
       <c r="A28" s="5">
         <v>36129</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1">
       <c r="A29" s="5">
         <v>36160</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1">
       <c r="A30" s="5">
         <v>36250</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1">
       <c r="A31" s="5">
         <v>36311</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15.75" customHeight="1">
       <c r="A32" s="5">
         <v>36341</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15.75" customHeight="1">
       <c r="A33" s="5">
         <v>36372</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15.75" customHeight="1">
       <c r="A34" s="5">
         <v>36403</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15.75" customHeight="1">
       <c r="A35" s="5">
         <v>36433</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15.75" customHeight="1">
       <c r="A36" s="5">
         <v>36464</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15.75" customHeight="1">
       <c r="A37" s="5">
         <v>36494</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15.75" customHeight="1">
       <c r="A38" s="5">
         <v>36525</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15.75" customHeight="1">
       <c r="A39" s="5">
         <v>36556</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15.75" customHeight="1">
       <c r="A40" s="5">
         <v>36585</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15.75" customHeight="1">
       <c r="A41" s="5">
         <v>36616</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15.75" customHeight="1">
       <c r="A42" s="5">
         <v>36646</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15.75" customHeight="1">
       <c r="A43" s="5">
         <v>36677</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15.75" customHeight="1">
       <c r="A44" s="5">
         <v>36707</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15.75" customHeight="1">
       <c r="A45" s="5">
         <v>36738</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15.75" customHeight="1">
       <c r="A46" s="5">
         <v>36769</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.75" customHeight="1">
       <c r="A47" s="5">
         <v>36799</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15.75" customHeight="1">
       <c r="A48" s="5">
         <v>36830</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15.75" customHeight="1">
       <c r="A49" s="5">
         <v>36860</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.75" customHeight="1">
       <c r="A50" s="5">
         <v>36891</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15.75" customHeight="1">
       <c r="A51" s="5">
         <v>36922</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.75" customHeight="1">
       <c r="A52" s="5">
         <v>36950</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15.75" customHeight="1">
       <c r="A53" s="5">
         <v>36981</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15.75" customHeight="1">
       <c r="A54" s="5">
         <v>37011</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="15.75" customHeight="1">
       <c r="A55" s="5">
         <v>37042</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15.75" customHeight="1">
       <c r="A56" s="5">
         <v>37072</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" ht="15.75" customHeight="1">
       <c r="A57" s="5">
         <v>37103</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="15.75" customHeight="1">
       <c r="A58" s="5">
         <v>37134</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" ht="15.75" customHeight="1">
       <c r="A59" s="5">
         <v>37164</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" ht="15.75" customHeight="1">
       <c r="A60" s="5">
         <v>37195</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="15.75" customHeight="1">
       <c r="A61" s="5">
         <v>37225</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="15.75" customHeight="1">
       <c r="A62" s="5">
         <v>37256</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="15.75" customHeight="1">
       <c r="A63" s="5">
         <v>37287</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="15.75" customHeight="1">
       <c r="A64" s="5">
         <v>37315</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="15.75" customHeight="1">
       <c r="A65" s="5">
         <v>37346</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="15.75" customHeight="1">
       <c r="A66" s="5">
         <v>37376</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" ht="15.75" customHeight="1">
       <c r="A67" s="5">
         <v>37407</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" ht="15.75" customHeight="1">
       <c r="A68" s="5">
         <v>37437</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" ht="15.75" customHeight="1">
       <c r="A69" s="5">
         <v>37468</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="15.75" customHeight="1">
       <c r="A70" s="5">
         <v>37499</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="15.75" customHeight="1">
       <c r="A71" s="5">
         <v>37529</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="15.75" customHeight="1">
       <c r="A72" s="5">
         <v>37560</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" ht="15.75" customHeight="1">
       <c r="A73" s="5">
         <v>37590</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="15.75" customHeight="1">
       <c r="A74" s="5">
         <v>37621</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" ht="15.75" customHeight="1">
       <c r="A75" s="5">
         <v>37652</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" ht="15.75" customHeight="1">
       <c r="A76" s="5">
         <v>37680</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="15.75" customHeight="1">
       <c r="A77" s="5">
         <v>37711</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="15.75" customHeight="1">
       <c r="A78" s="5">
         <v>37741</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="15.75" customHeight="1">
       <c r="A79" s="5">
         <v>37772</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="15.75" customHeight="1">
       <c r="A80" s="5">
         <v>37802</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="15.75" customHeight="1">
       <c r="A81" s="5">
         <v>37833</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="15.75" customHeight="1">
       <c r="A82" s="5">
         <v>37864</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="15.75" customHeight="1">
       <c r="A83" s="5">
         <v>37894</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="15.75" customHeight="1">
       <c r="A84" s="5">
         <v>37925</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="15.75" customHeight="1">
       <c r="A85" s="5">
         <v>37955</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="15.75" customHeight="1">
       <c r="A86" s="5">
         <v>37986</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="15.75" customHeight="1">
       <c r="A87" s="5">
         <v>38017</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="15.75" customHeight="1">
       <c r="A88" s="5">
         <v>38046</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="15.75" customHeight="1">
       <c r="A89" s="5">
         <v>38077</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="15.75" customHeight="1">
       <c r="A90" s="5">
         <v>38107</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="15.75" customHeight="1">
       <c r="A91" s="5">
         <v>38138</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="15.75" customHeight="1">
       <c r="A92" s="5">
         <v>38168</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="15.75" customHeight="1">
       <c r="A93" s="5">
         <v>38199</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="15.75" customHeight="1">
       <c r="A94" s="5">
         <v>38230</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="15.75" customHeight="1">
       <c r="A95" s="5">
         <v>38260</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="15.75" customHeight="1">
       <c r="A96" s="5">
         <v>38291</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="15.75" customHeight="1">
       <c r="A97" s="5">
         <v>38321</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="15.75" customHeight="1">
       <c r="A98" s="5">
         <v>38352</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="15.75" customHeight="1">
       <c r="A99" s="5">
         <v>38383</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="15.75" customHeight="1">
       <c r="A100" s="5">
         <v>38411</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="15.75" customHeight="1">
       <c r="A101" s="5">
         <v>38442</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" ht="15.75" customHeight="1">
       <c r="A102" s="5">
         <v>38472</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" ht="15.75" customHeight="1">
       <c r="A103" s="5">
         <v>38503</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" ht="15.75" customHeight="1">
       <c r="A104" s="5">
         <v>38533</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" ht="15.75" customHeight="1">
       <c r="A105" s="5">
         <v>38564</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" ht="15.75" customHeight="1">
       <c r="A106" s="5">
         <v>38595</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" ht="15.75" customHeight="1">
       <c r="A107" s="5">
         <v>38625</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" ht="15.75" customHeight="1">
       <c r="A108" s="5">
         <v>38656</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" ht="15.75" customHeight="1">
       <c r="A109" s="5">
         <v>38686</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" ht="15.75" customHeight="1">
       <c r="A110" s="5">
         <v>38717</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" ht="15.75" customHeight="1">
       <c r="A111" s="5">
         <v>38748</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" ht="15.75" customHeight="1">
       <c r="A112" s="5">
         <v>38776</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="15.75" customHeight="1">
       <c r="A113" s="5">
         <v>38807</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" ht="15.75" customHeight="1">
       <c r="A114" s="5">
         <v>38837</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="15.75" customHeight="1">
       <c r="A115" s="5">
         <v>38868</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="15.75" customHeight="1">
       <c r="A116" s="5">
         <v>38898</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" ht="15.75" customHeight="1">
       <c r="A117" s="5">
         <v>38929</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="15.75" customHeight="1">
       <c r="A118" s="5">
         <v>38960</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="15.75" customHeight="1">
       <c r="A119" s="5">
         <v>38990</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" ht="15.75" customHeight="1">
       <c r="A120" s="5">
         <v>39021</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" ht="15.75" customHeight="1">
       <c r="A121" s="5">
         <v>39051</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" ht="15.75" customHeight="1">
       <c r="A122" s="5">
         <v>39082</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="15.75" customHeight="1">
       <c r="A123" s="5">
         <v>39113</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="15.75" customHeight="1">
       <c r="A124" s="5">
         <v>39141</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="15.75" customHeight="1">
       <c r="A125" s="5">
         <v>39172</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="15.75" customHeight="1">
       <c r="A126" s="5">
         <v>39202</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="15.75" customHeight="1">
       <c r="A127" s="5">
         <v>39233</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="15.75" customHeight="1">
       <c r="A128" s="5">
         <v>39263</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="15.75" customHeight="1">
       <c r="A129" s="5">
         <v>39294</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="15.75" customHeight="1">
       <c r="A130" s="5">
         <v>39325</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" ht="15.75" customHeight="1">
       <c r="A131" s="5">
         <v>39355</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" ht="15.75" customHeight="1">
       <c r="A132" s="5">
         <v>39386</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" ht="15.75" customHeight="1">
       <c r="A133" s="5">
         <v>39416</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" ht="15.75" customHeight="1">
       <c r="A134" s="5">
         <v>39447</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" ht="15.75" customHeight="1">
       <c r="A135" s="5">
         <v>39478</v>
       </c>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" ht="15.75" customHeight="1">
       <c r="A136" s="5">
         <v>39507</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="15.75" customHeight="1">
       <c r="A137" s="5">
         <v>39538</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" ht="15.75" customHeight="1">
       <c r="A138" s="5">
         <v>39568</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="15.75" customHeight="1">
       <c r="A139" s="5">
         <v>39599</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="15.75" customHeight="1">
       <c r="A140" s="5">
         <v>39629</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" ht="15.75" customHeight="1">
       <c r="A141" s="5">
         <v>39660</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="15.75" customHeight="1">
       <c r="A142" s="5">
         <v>39691</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" ht="15.75" customHeight="1">
       <c r="A143" s="5">
         <v>39721</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" ht="15.75" customHeight="1">
       <c r="A144" s="5">
         <v>39752</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="15.75" customHeight="1">
       <c r="A145" s="5">
         <v>39782</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" ht="15.75" customHeight="1">
       <c r="A146" s="5">
         <v>39813</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="15.75" customHeight="1">
       <c r="A147" s="5">
         <v>39844</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" ht="15.75" customHeight="1">
       <c r="A148" s="5">
         <v>39872</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="15.75" customHeight="1">
       <c r="A149" s="5">
         <v>39903</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" ht="15.75" customHeight="1">
       <c r="A150" s="5">
         <v>39933</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" ht="15.75" customHeight="1">
       <c r="A151" s="5">
         <v>39964</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" ht="15.75" customHeight="1">
       <c r="A152" s="5">
         <v>39994</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="15.75" customHeight="1">
       <c r="A153" s="5">
         <v>40025</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" ht="15.75" customHeight="1">
       <c r="A154" s="5">
         <v>40056</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="15.75" customHeight="1">
       <c r="A155" s="5">
         <v>40086</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" ht="15.75" customHeight="1">
       <c r="A156" s="5">
         <v>40117</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" ht="15.75" customHeight="1">
       <c r="A157" s="5">
         <v>40147</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" ht="15.75" customHeight="1">
       <c r="A158" s="5">
         <v>40178</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" ht="15.75" customHeight="1">
       <c r="A159" s="5">
         <v>40209</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>49897868</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" ht="15.75" customHeight="1">
       <c r="A160" s="5">
         <v>40237</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" ht="15.75" customHeight="1">
       <c r="A161" s="5">
         <v>40268</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" ht="15.75" customHeight="1">
       <c r="A162" s="5">
         <v>40298</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" ht="15.75" customHeight="1">
       <c r="A163" s="5">
         <v>40329</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>43489341</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" ht="15.75" customHeight="1">
       <c r="A164" s="5">
         <v>40359</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" ht="15.75" customHeight="1">
       <c r="A165" s="5">
         <v>40390</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="15.75" customHeight="1">
       <c r="A166" s="5">
         <v>40421</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" ht="15.75" customHeight="1">
       <c r="A167" s="5">
         <v>40451</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>28174542</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="15.75" customHeight="1">
       <c r="A168" s="5">
         <v>40482</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>42385927</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="15.75" customHeight="1">
       <c r="A169" s="5">
         <v>40512</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" ht="15.75" customHeight="1">
       <c r="A170" s="5">
         <v>40543</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>32079618</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="15.75" customHeight="1">
       <c r="A171" s="5">
         <v>40574</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="15.75" customHeight="1">
       <c r="A172" s="5">
         <v>40602</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" ht="15.75" customHeight="1">
       <c r="A173" s="5">
         <v>40633</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>35512840</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" ht="15.75" customHeight="1">
       <c r="A174" s="5">
         <v>40663</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" ht="15.75" customHeight="1">
       <c r="A175" s="5">
         <v>40694</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" ht="15.75" customHeight="1">
       <c r="A176" s="5">
         <v>40724</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" ht="15.75" customHeight="1">
       <c r="A177" s="5">
         <v>40755</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>48692789</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" ht="15.75" customHeight="1">
       <c r="A178" s="5">
         <v>40786</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" ht="15.75" customHeight="1">
       <c r="A179" s="5">
         <v>40816</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>49516081</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" ht="15.75" customHeight="1">
       <c r="A180" s="5">
         <v>40847</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" ht="15.75" customHeight="1">
       <c r="A181" s="5">
         <v>40877</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>62155377</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" ht="15.75" customHeight="1">
       <c r="A182" s="5">
         <v>40908</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" ht="15.75" customHeight="1">
       <c r="A183" s="5">
         <v>40939</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>55989402</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" ht="15.75" customHeight="1">
       <c r="A184" s="5">
         <v>40968</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" ht="15.75" customHeight="1">
       <c r="A185" s="5">
         <v>40999</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>59886870</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" ht="15.75" customHeight="1">
       <c r="A186" s="5">
         <v>41029</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" ht="15.75" customHeight="1">
       <c r="A187" s="5">
         <v>41060</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>61823808</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" ht="15.75" customHeight="1">
       <c r="A188" s="5">
         <v>41090</v>
       </c>
@@ -8216,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" ht="15.75" customHeight="1">
       <c r="A189" s="5">
         <v>41121</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" ht="15.75" customHeight="1">
       <c r="A190" s="5">
         <v>41152</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>66929830</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" ht="15.75" customHeight="1">
       <c r="A191" s="5">
         <v>41182</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" ht="15.75" customHeight="1">
       <c r="A192" s="5">
         <v>41213</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>58770034</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" ht="15.75" customHeight="1">
       <c r="A193" s="5">
         <v>41243</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" ht="15.75" customHeight="1">
       <c r="A194" s="5">
         <v>41274</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>35679712</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" ht="15.75" customHeight="1">
       <c r="A195" s="5">
         <v>41305</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" ht="15.75" customHeight="1">
       <c r="A196" s="5">
         <v>41333</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" ht="15.75" customHeight="1">
       <c r="A197" s="5">
         <v>41364</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" ht="15.75" customHeight="1">
       <c r="A198" s="5">
         <v>41394</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" ht="15.75" customHeight="1">
       <c r="A199" s="5">
         <v>41425</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" ht="15.75" customHeight="1">
       <c r="A200" s="5">
         <v>41455</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" ht="15.75" customHeight="1">
       <c r="A201" s="5">
         <v>41486</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" ht="15.75" customHeight="1">
       <c r="A202" s="5">
         <v>41517</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" ht="15.75" customHeight="1">
       <c r="A203" s="5">
         <v>41547</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" ht="15.75" customHeight="1">
       <c r="A204" s="5">
         <v>41578</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" ht="15.75" customHeight="1">
       <c r="A205" s="5">
         <v>41608</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" ht="15.75" customHeight="1">
       <c r="A206" s="5">
         <v>41639</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" ht="15.75" customHeight="1">
       <c r="A207" s="5">
         <v>41670</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>60444066</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" ht="15.75" customHeight="1">
       <c r="A208" s="5">
         <v>41698</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" ht="15.75" customHeight="1">
       <c r="A209" s="5">
         <v>41729</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" ht="15.75" customHeight="1">
       <c r="A210" s="5">
         <v>41759</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" ht="15.75" customHeight="1">
       <c r="A211" s="5">
         <v>41790</v>
       </c>
@@ -9159,7 +9159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" ht="15.75" customHeight="1">
       <c r="A212" s="5">
         <v>41820</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" ht="15.75" customHeight="1">
       <c r="A213" s="5">
         <v>41851</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>25730058</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" ht="15.75" customHeight="1">
       <c r="A214" s="5">
         <v>41882</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" ht="15.75" customHeight="1">
       <c r="A215" s="5">
         <v>41912</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" ht="15.75" customHeight="1">
       <c r="A216" s="5">
         <v>41943</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" ht="15.75" customHeight="1">
       <c r="A217" s="5">
         <v>41973</v>
       </c>
@@ -9405,7 +9405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" ht="15.75" customHeight="1">
       <c r="A218" s="5">
         <v>42004</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" ht="15.75" customHeight="1">
       <c r="A219" s="5">
         <v>42035</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" ht="15.75" customHeight="1">
       <c r="A220" s="5">
         <v>42063</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" ht="15.75" customHeight="1">
       <c r="A221" s="5">
         <v>42094</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>24561862</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" ht="15.75" customHeight="1">
       <c r="A222" s="5">
         <v>42124</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" ht="15.75" customHeight="1">
       <c r="A223" s="5">
         <v>42155</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" ht="15.75" customHeight="1">
       <c r="A224" s="5">
         <v>42185</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" ht="15.75" customHeight="1">
       <c r="A225" s="5">
         <v>42216</v>
       </c>
@@ -9733,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" ht="15.75" customHeight="1">
       <c r="A226" s="5">
         <v>42247</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" ht="15.75" customHeight="1">
       <c r="A227" s="5">
         <v>42277</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" ht="15.75" customHeight="1">
       <c r="A228" s="5">
         <v>42308</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>41619843</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" ht="15.75" customHeight="1">
       <c r="A229" s="5">
         <v>42338</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>41704023</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" ht="15.75" customHeight="1">
       <c r="A230" s="5">
         <v>42369</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" ht="15.75" customHeight="1">
       <c r="A231" s="5">
         <v>42400</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>23194500</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" ht="15.75" customHeight="1">
       <c r="A232" s="5">
         <v>42429</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" ht="15.75" customHeight="1">
       <c r="A233" s="5">
         <v>42460</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" ht="15.75" customHeight="1">
       <c r="A234" s="5">
         <v>42490</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" ht="15.75" customHeight="1">
       <c r="A235" s="5">
         <v>42521</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" ht="15.75" customHeight="1">
       <c r="A236" s="5">
         <v>42551</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>19952228</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" ht="15.75" customHeight="1">
       <c r="A237" s="5">
         <v>42582</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" ht="15.75" customHeight="1">
       <c r="A238" s="5">
         <v>42613</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>21494172</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" ht="15.75" customHeight="1">
       <c r="A239" s="5">
         <v>42643</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>19571142</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" ht="15.75" customHeight="1">
       <c r="A240" s="5">
         <v>42674</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" ht="15.75" customHeight="1">
       <c r="A241" s="5">
         <v>42704</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" ht="15.75" customHeight="1">
       <c r="A242" s="5">
         <v>42735</v>
       </c>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" ht="15.75" customHeight="1">
       <c r="A243" s="5">
         <v>42766</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>24394571</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" ht="15.75" customHeight="1">
       <c r="A244" s="5">
         <v>42794</v>
       </c>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" ht="15.75" customHeight="1">
       <c r="A245" s="5">
         <v>42825</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" ht="15.75" customHeight="1">
       <c r="A246" s="5">
         <v>42855</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" ht="15.75" customHeight="1">
       <c r="A247" s="5">
         <v>42886</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>29796285</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" ht="15.75" customHeight="1">
       <c r="A248" s="5">
         <v>42916</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>17372167</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" ht="15.75" customHeight="1">
       <c r="A249" s="5">
         <v>42947</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" ht="15.75" customHeight="1">
       <c r="A250" s="5">
         <v>42978</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" ht="15.75" customHeight="1">
       <c r="A251" s="5">
         <v>43008</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" ht="15.75" customHeight="1">
       <c r="A252" s="5">
         <v>43039</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" ht="15.75" customHeight="1">
       <c r="A253" s="5">
         <v>43069</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>76285558</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" ht="15.75" customHeight="1">
       <c r="A254" s="5">
         <v>43100</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>28073495</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" ht="15.75" customHeight="1">
       <c r="A255" s="5">
         <v>43131</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>26685341</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" ht="15.75" customHeight="1">
       <c r="A256" s="5">
         <v>43159</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>31511854</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" ht="15.75" customHeight="1">
       <c r="A257" s="5">
         <v>43190</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" ht="15.75" customHeight="1">
       <c r="A258" s="5">
         <v>43220</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" ht="15.75" customHeight="1">
       <c r="A259" s="5">
         <v>43251</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" ht="15.75" customHeight="1">
       <c r="A260" s="5">
         <v>43281</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" ht="15.75" customHeight="1">
       <c r="A261" s="5">
         <v>43312</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>73960499</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" ht="15.75" customHeight="1">
       <c r="A262" s="5">
         <v>43343</v>
       </c>
@@ -11250,7 +11250,7 @@
         <v>36656233</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" ht="15.75" customHeight="1">
       <c r="A263" s="5">
         <v>43373</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" ht="15.75" customHeight="1">
       <c r="A264" s="5">
         <v>43404</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>45712230</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" ht="15.75" customHeight="1">
       <c r="A265" s="5">
         <v>43434</v>
       </c>
@@ -11373,7 +11373,7 @@
         <v>112798583</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" ht="15.75" customHeight="1">
       <c r="A266" s="5">
         <v>43465</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>74847187</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" ht="15.75" customHeight="1">
       <c r="A267" s="5">
         <v>43496</v>
       </c>
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" ht="15.75" customHeight="1">
       <c r="A268" s="5">
         <v>43524</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>72235372</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" ht="15.75" customHeight="1">
       <c r="A269" s="5">
         <v>43555</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>76821471</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" ht="15.75" customHeight="1">
       <c r="A270" s="5">
         <v>43585</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>20526208</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" ht="15.75" customHeight="1">
       <c r="A271" s="5">
         <v>43616</v>
       </c>
@@ -11619,7 +11619,7 @@
         <v>75191755</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" ht="15.75" customHeight="1">
       <c r="A272" s="5">
         <v>43646</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>33425426</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" ht="15.75" customHeight="1">
       <c r="A273" s="5">
         <v>43677</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>131331368</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" ht="15.75" customHeight="1">
       <c r="A274" s="5">
         <v>43708</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>154367765</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" ht="15.75" customHeight="1">
       <c r="A275" s="5">
         <v>43738</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>182691928</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" ht="15.75" customHeight="1">
       <c r="A276" s="5">
         <v>43769</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>229946528</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" ht="15.75" customHeight="1">
       <c r="A277" s="5">
         <v>43799</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>111115917</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" ht="15.75" customHeight="1">
       <c r="A278" s="5">
         <v>43830</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>45156737</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" ht="15.75" customHeight="1">
       <c r="A279" s="5">
         <v>43861</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>307462284</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" ht="15.75" customHeight="1">
       <c r="A280" s="5">
         <v>43890</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>50516430</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" ht="15.75" customHeight="1">
       <c r="A281" s="5">
         <v>43921</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>70293483</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" ht="15.75" customHeight="1">
       <c r="A282" s="5">
         <v>43951</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>67172484</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" ht="15.75" customHeight="1">
       <c r="A283" s="5">
         <v>43982</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>105519643</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" ht="15.75" customHeight="1">
       <c r="A284" s="5">
         <v>44012</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>120111027</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" ht="15.75" customHeight="1">
       <c r="A285" s="5">
         <v>44043</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>72831737</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" ht="15.75" customHeight="1">
       <c r="A286" s="5">
         <v>44074</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>164328501</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" ht="15.75" customHeight="1">
       <c r="A287" s="5">
         <v>44104</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>113215779</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" ht="15.75" customHeight="1">
       <c r="A288" s="5">
         <v>44135</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>194029433</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" ht="15.75" customHeight="1">
       <c r="A289" s="5">
         <v>44165</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>203379650</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" ht="15.75" customHeight="1">
       <c r="A290" s="5">
         <v>44196</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>249842683</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" ht="15.75" customHeight="1">
       <c r="A291" s="5">
         <v>44227</v>
       </c>
@@ -12439,7 +12439,7 @@
         <v>204121095</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" ht="15.75" customHeight="1">
       <c r="A292" s="5">
         <v>44255</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>115193707</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" ht="15.75" customHeight="1">
       <c r="A293" s="5">
         <v>44286</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>119921354</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" ht="15.75" customHeight="1">
       <c r="A294" s="5">
         <v>44316</v>
       </c>
@@ -12562,7 +12562,7 @@
         <v>98938536</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" ht="15.75" customHeight="1">
       <c r="A295" s="5">
         <v>44347</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>93364023</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" ht="15.75" customHeight="1">
       <c r="A296" s="5">
         <v>44377</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>133662471</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" ht="15.75" customHeight="1">
       <c r="A297" s="5">
         <v>44408</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>180779599</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" ht="15.75" customHeight="1">
       <c r="A298" s="5">
         <v>44439</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>280428159</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" ht="15.75" customHeight="1">
       <c r="A299" s="5">
         <v>44469</v>
       </c>
@@ -12767,7 +12767,7 @@
         <v>407141933</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" ht="15.75" customHeight="1">
       <c r="A300" s="5">
         <v>44500</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>421789654</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" ht="15.75" customHeight="1">
       <c r="A301" s="5">
         <v>44530</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>389259914</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" ht="15.75" customHeight="1">
       <c r="A302" s="5">
         <v>44561</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>318423585</v>
       </c>
     </row>
-    <row r="303" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" ht="15.75" customHeight="1">
       <c r="A303" s="5">
         <v>44592</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>193831852</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" ht="15.75" customHeight="1">
       <c r="A304" s="5">
         <v>44620</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>300593984</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" ht="15.75" customHeight="1">
       <c r="A305" s="5">
         <v>44651</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>235718729</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" ht="15.75" customHeight="1">
       <c r="A306" s="5">
         <v>44681</v>
       </c>
@@ -13054,7 +13054,7 @@
         <v>577022716</v>
       </c>
     </row>
-    <row r="307" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" ht="15.75" customHeight="1">
       <c r="A307" s="5">
         <v>44712</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>439731923</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" ht="15.75" customHeight="1">
       <c r="A308" s="5">
         <v>44742</v>
       </c>
@@ -13136,7 +13136,7 @@
         <v>394995319</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" ht="15.75" customHeight="1">
       <c r="A309" s="5">
         <v>44773</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>304297752</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" ht="15.75" customHeight="1">
       <c r="A310" s="5">
         <v>44804</v>
       </c>
@@ -13218,7 +13218,7 @@
         <v>746628211</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" ht="15.75" customHeight="1">
       <c r="A311" s="5">
         <v>44834</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>1016805594</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" ht="15.75" customHeight="1">
       <c r="A312" s="5">
         <v>44865</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>1083230540</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" ht="15.75" customHeight="1">
       <c r="A313" s="5">
         <v>44895</v>
       </c>
@@ -13341,7 +13341,7 @@
         <v>812106320</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" ht="15.75" customHeight="1">
       <c r="A314" s="5">
         <v>44926</v>
       </c>
@@ -13382,7 +13382,7 @@
         <v>629150778</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" ht="15.75" customHeight="1">
       <c r="A315" s="5">
         <v>44957</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>436474686</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" ht="15.75" customHeight="1">
       <c r="A316" s="5">
         <v>44985</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>476515753</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" ht="15.75" customHeight="1">
       <c r="A317" s="5">
         <v>45016</v>
       </c>
@@ -13505,7 +13505,7 @@
         <v>401211904</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" ht="15.75" customHeight="1">
       <c r="A318" s="5">
         <v>45046</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>331776509</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" ht="15.75" customHeight="1">
       <c r="A319" s="5">
         <v>45077</v>
       </c>
@@ -13587,7 +13587,7 @@
         <v>539742791</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" ht="15.75" customHeight="1">
       <c r="A320" s="5">
         <v>45107</v>
       </c>
@@ -13628,7 +13628,7 @@
         <v>508034850</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" ht="15.75" customHeight="1">
       <c r="A321" s="5">
         <v>45138</v>
       </c>
@@ -13669,7 +13669,7 @@
         <v>308818209</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" ht="15.75" customHeight="1">
       <c r="A322" s="5">
         <v>45169</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>564183525</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" ht="15.75" customHeight="1">
       <c r="A323" s="5">
         <v>45199</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>436549807</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" ht="15.75" customHeight="1">
       <c r="A324" s="5">
         <v>45230</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>417788404</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" ht="15.75" customHeight="1">
       <c r="A325" s="5">
         <v>45260</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>377252800</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" ht="15.75" customHeight="1">
       <c r="A326" s="5">
         <v>45291</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>390073267</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" ht="15.75" customHeight="1">
       <c r="A327" s="5">
         <v>45322</v>
       </c>
@@ -13915,7 +13915,7 @@
         <v>523919137</v>
       </c>
     </row>
-    <row r="328" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" ht="15.75" customHeight="1">
       <c r="A328" s="5">
         <v>45351</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>266765694</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" ht="15.75" customHeight="1">
       <c r="A329" s="5">
         <v>45382</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>263521897</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" ht="15.75" customHeight="1">
       <c r="A330" s="5">
         <v>45412</v>
       </c>
@@ -14038,7 +14038,7 @@
         <v>395274696</v>
       </c>
     </row>
-    <row r="331" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" ht="15.75" customHeight="1">
       <c r="A331" s="5">
         <v>45443</v>
       </c>
@@ -14079,675 +14079,675 @@
         <v>236348328</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="333" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="334" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="335" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="336" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/inst/extdata/China fossil fuel imports from Russia - backup.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381126A9-8F76-4E4C-9228-EB15F03E9E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9B9CF8-8D8A-4CF4-BF24-78F82D77236E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/China fossil fuel imports from Russia - backup.xlsx
+++ b/inst/extdata/China fossil fuel imports from Russia - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9B9CF8-8D8A-4CF4-BF24-78F82D77236E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C89FE3-9812-41CF-8F2B-8130FDD94EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,9 +541,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>47</v>
